--- a/src/attributions/attributions_ig_traj_112.xlsx
+++ b/src/attributions/attributions_ig_traj_112.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,100 +1573,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.02387994216587988</v>
       </c>
       <c r="B3" t="n">
         <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03743278758815401</v>
+        <v>0.04423836226719257</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1073391347356228</v>
+        <v>-0.3109553807120964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.137221622903642</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.06846436624569116</v>
       </c>
       <c r="K3" t="n">
         <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07299543409220556</v>
+        <v>0.0249688642728071</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01196785202476847</v>
+        <v>-0.09454779131188673</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04612748904687745</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.03168151445261891</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01604920914375107</v>
+        <v>0.06637150305081928</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01314155714675166</v>
+        <v>-0.159006396158469</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02854864827022966</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.1609791011536527</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.07262965895532034</v>
+        <v>0.02361942381452062</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.0684695773821232</v>
+        <v>0.02592911007818441</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1675,25 +1675,25 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.08275885762263994</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.04876121667008308</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001869181776531231</v>
+        <v>-0.01343200075943153</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.02122337634980492</v>
+        <v>-0.1958302291719787</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1705,49 +1705,49 @@
         <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.02140140222848649</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.02022805764024063</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2023130879709067</v>
+        <v>0.1987753885576469</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1488254482927229</v>
+        <v>-0.1560345113198693</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2017993178930962</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.01787269212887546</v>
       </c>
       <c r="BD3" t="n">
         <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.009814653930258873</v>
+        <v>-0.05073095867579099</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.004909335989642931</v>
+        <v>-0.06857875362670816</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
@@ -1756,52 +1756,52 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.0277449449835745</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.05171459732950769</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.06296900508197331</v>
+        <v>0.05090091160877816</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.07513008760017527</v>
+        <v>0.2048556167741133</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.05684094751839858</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.1126478609103825</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.02244454696156753</v>
+        <v>0.1428211857031447</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1505732135097373</v>
+        <v>-0.1711391198644961</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,136 +1810,136 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1687142108301235</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.04910369290929716</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.06327209865484196</v>
+        <v>0.01455701743148143</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.04983322742839413</v>
+        <v>0.09469073594687775</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.04215897013551442</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0.004376270183749745</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.003510153857170609</v>
+        <v>0.05915602807276087</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.09955051476057615</v>
+        <v>-0.2029922949848715</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1055336814220693</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.05461946601964401</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05918214954762261</v>
+        <v>0.002872232128648577</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.08076207414197001</v>
+        <v>0.0792547718855332</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.04495151544330696</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.008211882139525622</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.09650145462005506</v>
+        <v>0.0001091684163302863</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.06160667724509071</v>
+        <v>0.09264915568442901</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.001607135012049799</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.07263475966045466</v>
       </c>
       <c r="DO3" t="n">
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.1008031049377831</v>
+        <v>0.005952118578333238</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.04897271600166995</v>
+        <v>0.1121966653471687</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,178 +1948,178 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0306006047824161</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.08886121172554554</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.003346289993697475</v>
+        <v>0.04107319523280009</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01388009756886879</v>
+        <v>0.0411325746166283</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.04912286479189142</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0.03911675225022222</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04720327487687365</v>
+        <v>-0.009583745026880143</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.03357108715121088</v>
+        <v>-0.003475514962451935</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.01922606256585755</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.0263667538573165</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.05599230513983904</v>
+        <v>0.03379367013724691</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.04092384591400671</v>
+        <v>0.009559720233026469</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.04648473101110902</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.05834644353766964</v>
       </c>
       <c r="EY3" t="n">
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.06461013921896135</v>
+        <v>0.00707244717498297</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.04409656037014287</v>
+        <v>0.07082153085388666</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.0566599464438129</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.08431965690033606</v>
       </c>
       <c r="FH3" t="n">
         <v>-0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.03380667420004695</v>
+        <v>0.03236223307667872</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.08261366258980087</v>
+        <v>0.1215425241916863</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1316864731378755</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.1135710486671017</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.01851443015209242</v>
+        <v>-4.79852101098104e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.001914353337390847</v>
+        <v>0.005309427575977969</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0002270282249285825</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.06555240619387745</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.04573357492935078</v>
+        <v>0.1164009954721865</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.05460827034352649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2471629162950395</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02695976523429498</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.05469702287120912</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0210498820015414</v>
+        <v>-0.04568833610068638</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09280042876859117</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.09538591272888454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01403193307386285</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.02998375722540975</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001065156321457871</v>
+        <v>-0.02983823272383012</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04349653014463489</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1173243944990684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01965395392511366</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.03846835999169186</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04677311593552413</v>
+        <v>0.03425476681290692</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,133 +2217,133 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.009998224057360052</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.0516774881833913</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01515512310145196</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.02742806673338002</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.06915617513294321</v>
+        <v>-0.03625930910709115</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.04367909636491476</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.05331992868024171</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01385021055639737</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.03876899621650962</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03359594553862209</v>
+        <v>-0.01728952481418551</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0009736673210679718</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.4311595110618587</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.07797875452472769</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.01005438750606607</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0350269451901719</v>
+        <v>0.1910853811234853</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1108907731265344</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.01160368163996225</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.01119397382414917</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.04531425025126586</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.003467179011618979</v>
+        <v>-0.07481665085510228</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.007042643642858502</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.04617740060078838</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.06269899718346748</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.0984193156270277</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03695170465697873</v>
+        <v>0.0163837743719536</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,28 +2352,28 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02720825624313923</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2003815959951325</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.003247906821369776</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01126993492628888</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02711518869089805</v>
+        <v>-0.007273794442301349</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.07437765851224</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.06788075253471304</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02964418993648628</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>0.01221295663051582</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.009973433633991302</v>
+        <v>-0.02552130251395173</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.02469392212199725</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.04029368601245266</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.004456222356854915</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1072821478091828</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.03643760384236306</v>
+        <v>-0.1650013860501659</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.07388762352587423</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.05151957546532296</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01961170610165905</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.04088214664527261</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01832467664437709</v>
+        <v>-0.0196630974626667</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02452878126428139</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.075032676311462</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.007625421437459056</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.005499403396417012</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0008786776032999427</v>
+        <v>0.0002965499564725607</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,76 +2490,76 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02809819826587187</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.06700831518893315</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02163051848728035</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03261513809258627</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.02313071048786231</v>
+        <v>-0.01277930582802048</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03596355111903757</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.06202172268184585</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01669827966577056</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.069094883220001</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02519993336159158</v>
+        <v>-0.02010133722901953</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01374981574820614</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.03622736817609308</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.008470969057509407</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.08013562621035659</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.03573670422149556</v>
+        <v>-0.003958419594526416</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02782475345635253</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.03739370156106853</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.013152091205959</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.03677115146384054</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03769710113307757</v>
+        <v>-0.02209716745781563</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.04547530904370182</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.05953961508588553</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.02374711215792915</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.01995281555780826</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.003002546551712559</v>
+        <v>-0.03904768698970316</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02850506780710121</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.03266067008926511</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.01544377239336072</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.0472570126832309</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02604652982793567</v>
+        <v>-0.01900440967385729</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.03828910501964069</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.002565098676272511</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.000641356762838017</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.002366605078880382</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0001720053717647824</v>
+        <v>0.0006560343917926179</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.0002406752225499256</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.003915886601314767</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01728718747671146</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02239254671888356</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,75 +2700,75 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.02143265538348738</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.03800069404876592</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002624609183516288</v>
+        <v>-0.03525535501985389</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02598064096380983</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01586666998020032</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07442796459034998</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.009398298371234303</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01401799930201899</v>
+        <v>-0.01825425781421329</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.003221702859386785</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.003584155072024899</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04505194839004276</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.0009934357237345005</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2777,376 +2777,376 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01896760589098694</v>
+        <v>-0.01004419101084892</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01381315790261587</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03921550461421595</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.009437444808182878</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.01768276043130143</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.03653701414959497</v>
+        <v>0.01153433419562587</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.0130075754624334</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.032435758665002</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.002419745083932146</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.007541875633067159</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.01528282233276705</v>
+        <v>-0.01406023852465389</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.0043952615920624</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.001700142181431054</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.002840450886158983</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.05223954603005503</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03712778728363934</v>
+        <v>-0.03975044151416369</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.01854721890132405</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04253127852721681</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0767722368919303</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.01302395278663267</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02703311687470725</v>
+        <v>-0.01270479675105719</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.00789208275421498</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.009369545523797563</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01621487657458335</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.0355178562122809</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.03291594391729075</v>
+        <v>0.0169657445136474</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.006094671662352475</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.00233112455091006</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.01494916704115734</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.01720140191143617</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.04206572531594174</v>
+        <v>-0.01886271329900989</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0.003989040392572921</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.009929446360423925</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.03995536092948596</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.005459350455923218</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01132247134940604</v>
+        <v>0.01378787856393345</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.01185848844627145</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.002282998016879161</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.01414559329012014</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.0011103742081056</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.04078876294853288</v>
+        <v>0.00477397516967024</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.006500131911404337</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.02442244340364121</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01405360634784135</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.0004983075013660408</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.0132384887266342</v>
+        <v>0.0136002058158752</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01441947642440513</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.001434088805905282</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.01995893086955945</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.009193534806671264</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.007373783097564052</v>
+        <v>0.01008403638378884</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.003180356416458649</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.004964626002766505</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.00966740842764347</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01061448000570377</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04711143092700236</v>
+        <v>0.01980225903655083</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.01419298494374579</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.002002871772990892</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0.006105369407897842</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01333383318623554</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01847722611244814</v>
+        <v>-0.01637088420134843</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.003604206115618716</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.007687878222046582</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0.0005234976739691522</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.00195624052363005</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01681747922924002</v>
+        <v>0.001086180512904701</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.005077354019620811</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.005662672542450954</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.01700241574008037</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.010211914069912</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
@@ -3155,79 +3155,79 @@
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0288948891074371</v>
+        <v>0.0126764229048419</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.01241779012679581</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01552771200039407</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.006518953418360188</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.003645584913446339</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.01495302512935225</v>
+        <v>0.01211168436949582</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01404402191285117</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.00289887680111379</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.01664902173628247</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01722395715803254</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02247890810546849</v>
+        <v>-0.022694903750061</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01030914603037229</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0141891964360014</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.007364123650144688</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.002013209561533012</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.002658465185589191</v>
+        <v>0.001026481503808376</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.02569650261030959</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02026754508745812</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.004999497223689578</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.0187176415911546</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.0007302476132244867</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0145255920074187</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.0122412389082259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.3628568623304991</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1275079487259339</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.146169585356274</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07569379551242117</v>
+        <v>-0.06313656389089674</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1685657555281831</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1926903477043752</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03084825156732011</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.03893427283731483</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01090294732547762</v>
+        <v>-0.06744548216467626</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1184792906216603</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1115023178337828</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005416989669773663</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.01343832020718358</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04480495302678093</v>
+        <v>0.01676504603010602</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.008362296625458055</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.07640701118550346</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.03825654858258115</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.03639615647119099</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02914010174944806</v>
+        <v>-0.01615937067061281</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.08488309029385831</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.06016406515526213</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.02100650570301742</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.03904864141533908</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02966666430550326</v>
+        <v>-0.03563472912575486</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,103 +3981,103 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.01617238087559884</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.4798287479721036</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.2267499066969311</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.009929144767735935</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.06301390878060778</v>
+        <v>0.1843170920120845</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1489810640541385</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.02075468129646752</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.03749059161086981</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.07027882764688889</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002372021931746118</v>
+        <v>-0.1180693354847731</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.009736850976312099</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.05964858000087809</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.07366684373543991</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.1067338090295818</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.06818312664240868</v>
+        <v>0.02983280349139278</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.0249884746403706</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2164832837473619</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.02126416772078074</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.002559279956250925</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.06259616880437688</v>
+        <v>-0.003921618342454592</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.08645413790401438</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.08260671763443521</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.05737424762954625</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.01953831011302305</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.02002564428208248</v>
+        <v>-0.02768183788427177</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.03902407461929808</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01707146763427918</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.01181989396475984</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1377049822536325</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.009548409639310255</v>
+        <v>-0.1631174528904515</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1078645401855565</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.06650482891969581</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.03633473304605892</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.04865483459184863</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.03656960645885014</v>
+        <v>-0.023915946017714</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.04499300614895043</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.03683277088511744</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01556250469716053</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.007610558223505482</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.0009413994620834098</v>
+        <v>-1.787153472262701e-05</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04185510638853324</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.08465028139256769</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.003143628668348658</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.03651334858419486</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.003111914586687034</v>
+        <v>-0.0135484152780193</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
@@ -4224,76 +4224,76 @@
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03144455189475645</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.04379611688632389</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0276499533561803</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.06549114783718055</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0007788331627102891</v>
+        <v>-0.01295206000405353</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.03207803708844529</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02358203772215772</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.04258685264343071</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07514161302910161</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.02952386152903468</v>
+        <v>-0.00573341950974149</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.03206269275289166</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.05096180898064721</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0005419492306426739</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.03044255610259173</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.03856980303761308</v>
+        <v>-0.03743933986481726</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.06979689910242451</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.07216906886292482</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.04352717195913527</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.03104807603484139</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.01105243392671556</v>
+        <v>-0.03061752292463377</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,55 +4329,55 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.05535076152270757</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.01364514381003121</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02831095567384912</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.0668984267615525</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02781552933055639</v>
+        <v>0.002344268781006869</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.06252611531107542</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.007205682496229892</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.02289041406688538</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.01154021451688915</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.005368715247139041</v>
+        <v>0.01520853648156043</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.003400969776846733</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.007080909133213353</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01287791436575058</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.01993619953328231</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.04364187689158699</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.07744483187820088</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01552313848691274</v>
+        <v>-0.02052011562308737</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02923739364361466</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01065309147490923</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06704395634188681</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.02832709217380087</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.008734707585897535</v>
+        <v>-0.02200074653882897</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>-0.001859796386424758</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00073831581182915</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03994363343108587</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.0005248244636739394</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003629807033903694</v>
+        <v>-0.00206406976684389</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.01931958833985734</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01262914287518127</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.005777157308634441</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.02056071705881227</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.0004615191195915233</v>
+        <v>0.02962827044498503</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.00801715599269732</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.02331657880871407</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.005223663599239137</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01531798765251417</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.002933987546404086</v>
+        <v>-0.005895422950981678</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.009136129347727315</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.004961541702969497</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.006587631389753762</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.08577267525368108</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0526064293831916</v>
+        <v>-0.005990256470498711</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.01577541007957426</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.04237211725488366</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.07035262146005727</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01767188507245903</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.02685136729358203</v>
+        <v>-0.02217455562090941</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.007067293590851021</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.01502013885848438</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.002509386210929878</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.03079723203971411</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,52 +5188,52 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01998551509668215</v>
+        <v>0.02464894714924912</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.007876111145537214</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.007388354907166006</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.005922428964956378</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.02940903793842699</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0393741975907996</v>
+        <v>-0.01418787814576417</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.0175861420060917</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.00233027785560167</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.02713549669887869</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.008029861343165799</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
@@ -5242,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.009458918680503569</v>
+        <v>0.000766355765171948</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.01372345991941326</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.005381496563315314</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.005509698584594015</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.009772799567255568</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,52 +5269,52 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.03120277205158423</v>
+        <v>0.004454598038388153</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03135060251938951</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01222660321588198</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.03642048380339153</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.003397145499693057</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.005289290554300721</v>
+        <v>0.001634401229548923</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.01639660760330382</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0001145836204036</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01361118956254457</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.002220323475479821</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
@@ -5323,133 +5323,133 @@
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.03409787568216252</v>
+        <v>0.02692631920144412</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01352554270227042</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.01860341259941511</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
         <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.00643484067600047</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.008953095262925112</v>
       </c>
       <c r="DP9" t="n">
         <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.008191004188777469</v>
+        <v>0.0160937916607804</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0.00707552574411012</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.001651194689195058</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.01414916885298431</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.02637521096477504</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.02660838267623954</v>
+        <v>-0.03911918065484527</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.01392682863656938</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.01169871273296226</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.01654604624998392</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.003307499952264537</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.007222235337000997</v>
+        <v>-0.0001841213442673502</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.00268145251883131</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.006421636109392751</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01609554235521895</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.005148271772005794</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.009161189377084929</v>
+        <v>-0.01704112009185342</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.04225274952876416</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.03255670418452931</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.008622297037447916</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.00165352617477248</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
@@ -5458,52 +5458,52 @@
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.004626521427485417</v>
+        <v>0.0008961467529960714</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.01758348386570644</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.001356723974702123</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.009291566441860711</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.0247387304426144</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.002593010783536234</v>
+        <v>-0.03690852922928384</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0.002784941581781802</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.008497406044638412</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.01812263814831348</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.00201124759772874</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0164603185910465</v>
+        <v>-0.01116101350913467</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.02978716553309548</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.00340488559489216</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.008462263467097102</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.02136075364215311</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.006308537710266412</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.02116476696520899</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.02572037996111836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2734564167601566</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.07230502424022306</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.09660443159627234</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01220558273153202</v>
+        <v>-0.0895996393942753</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1302918423116937</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1621562710770767</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03475084386524621</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>-0.0495915838494495</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04419756838421331</v>
+        <v>-0.101446729409003</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0984799011813195</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.06692047748750267</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0009927164730306475</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.01175387451106731</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01648469797823228</v>
+        <v>0.02731262264217158</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,187 +5631,187 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01257121752776622</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.07791770422523368</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.03808440378762495</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.03415897552144039</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.02089072228306049</v>
+        <v>8.129508962701263e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.04480421268686394</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.0118989445578132</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.007758247466742883</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.03013507178124711</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02806239268250201</v>
+        <v>-0.07614552160684608</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.003376414837778988</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.3569760421889527</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1290789043864427</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.007878739983230909</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01362602721409461</v>
+        <v>0.1104692799894263</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1103015573080405</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.02598118597127932</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.02560096234711255</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.03546209244244818</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.01834977351902235</v>
+        <v>-0.1129214120148363</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.01127474670820153</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1136075433636381</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.03176904463392966</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.06382652466032084</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05759142176909605</v>
+        <v>0.08702170804305877</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.02573805013671307</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1497514782812533</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01513679106576974</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.0004700447849649035</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02258150582079526</v>
+        <v>0.01680254449885207</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.06434437396142517</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.05263386436256628</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02939033683706387</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>0.002842856773778949</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.008536191797230615</v>
+        <v>0.003797638917304214</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
@@ -5820,52 +5820,52 @@
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02639856628536683</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.06516722605116256</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.003953254403652181</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.09379010102508724</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01765129411735991</v>
+        <v>-0.1053930623819967</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.06070552975830851</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.03246400814421799</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01569791743924282</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.02498887779237372</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.00033258012780446</v>
+        <v>0.004411538115185219</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5874,28 +5874,28 @@
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02730227317018999</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.001006225835083109</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.03798280628203285</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.0203897917931117</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.001808838978110257</v>
+        <v>-0.004675446090095653</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.04848762132298419</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.05240632488661994</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0114745450488606</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05954957727568773</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01779586419016325</v>
+        <v>-0.005942701853838405</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,22 +5931,22 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.02744376126767484</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.04619829760963263</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.009323046545483835</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.03741375074824214</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.009521335404462615</v>
+        <v>-0.01348688789214232</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,25 +5955,25 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.01613118918645411</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02030781187226492</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01192845018884957</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.06986252407970357</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03634484774168265</v>
+        <v>0.04982624885588373</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
@@ -5982,25 +5982,25 @@
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.02693549614792128</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.04279462823148703</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01805259120249488</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.04553868717649914</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.005977989974617513</v>
+        <v>0.00419535455121062</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.05224008736909374</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.04094949638805737</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0208451581551229</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.0178671006777913</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01443785189008153</v>
+        <v>0.01658768417924171</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6036,91 +6036,91 @@
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.03568267105779043</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.05632367523219518</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02957533624231748</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.05326418999692722</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.02159345525745592</v>
+        <v>-0.0119192198258514</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.0310593687721472</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.01000505309144677</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01452219761299688</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.01047431542355796</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.001349542324112714</v>
+        <v>0.04751249312881812</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.007550738823967357</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.003868034690075963</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.001931112428877952</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.01324834418027273</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.03907809270268325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2624116359387804</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03668589774384935</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.03881939443125872</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03905190673148982</v>
+        <v>-0.05930305353265004</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08150645732060666</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.1366569601774322</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01317735206745816</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>-0.01493843849999751</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0224333742468347</v>
+        <v>-0.05418528308489518</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07394987488805464</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04493308492445113</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003474498980796578</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.01316339545839634</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01632097164295774</v>
+        <v>0.03743774499274665</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03294174711986929</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.07218816005789898</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.040305596324774</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.02118107628822657</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01443000535046923</v>
+        <v>0.001351879340714758</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.04319409666010962</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.01593818829408705</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.005796514475726349</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.01626551253329821</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03036635693024409</v>
+        <v>-0.04857449964241929</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,52 +6826,52 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.001412645824917951</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.2755598222233201</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.04600510812083324</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.03253363828655369</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03948038065000098</v>
+        <v>0.06078775272059511</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.07661516134227458</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.02748416402455224</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.03199696336148253</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.06103839168169392</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.003227375711094764</v>
+        <v>-0.06593262662332867</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,49 +6880,49 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.03600127272888911</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1044795212856029</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.05537183424743909</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.02370464895777139</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03884428249111552</v>
+        <v>0.09933668161081831</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.03434461512546242</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1256849148602937</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.007185708266844305</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.02373396834097652</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.04240760798330959</v>
+        <v>0.02657224830090911</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,22 +6934,22 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0592083923781844</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.05149450331862825</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.02382083776637521</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.005129242792431028</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.009345400265896878</v>
+        <v>0.005766829502282254</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
@@ -6958,25 +6958,25 @@
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.0111772177500214</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.0518822534491421</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.009037561823227598</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.05073182828579114</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.05269699728579549</v>
+        <v>-0.06716966590625414</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.05498513602856971</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.03058512312720336</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02557505119275385</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.009337990881361198</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02246297315746084</v>
+        <v>0.0009719031305633427</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01428546721680685</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.008662007772379189</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.04700178944438691</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.05361434618927224</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.001826659037434508</v>
+        <v>0.007362391663991064</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,49 +7042,49 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.008098426893555008</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05501325367481425</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.04318110861547361</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>0.007369380160160022</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01051241375271554</v>
+        <v>-0.01560492187590726</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.03341948342431305</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.00247315305874347</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.004855209253766334</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.006236684246898113</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01851698208973292</v>
+        <v>-0.01706178636936942</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,49 +7096,49 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.02411230194519068</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.02545061933391383</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01321800630351461</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>0.001417048226673886</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02307372847064972</v>
+        <v>0.06124057598746319</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.00809892383953971</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02828110190642648</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03846151091438467</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.008571980021333508</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01307041033866964</v>
+        <v>0.02350927181110672</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7147,103 +7147,103 @@
         <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.03052904217167792</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
         <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.03018744284991489</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.02476947509990592</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>0.002365772596215269</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.005759431080851972</v>
+        <v>0.01313878347749324</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.0229532090555469</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.01819826711347194</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03250743362895552</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.016857340948536</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03814667337879333</v>
+        <v>-0.03005815009609287</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.05451265337033145</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03820954570002701</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.01250215757543815</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.02249132432566002</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.03252515628811336</v>
+        <v>0.00853985112703123</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.009404253700500374</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.01094890968190659</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.01743296681686051</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.02886883367954961</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7252,13 +7252,13 @@
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.02364873931541748</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.2073893506791554</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.17830234049971</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04486807961308777</v>
+        <v>-0.004609413240204317</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1357087275226383</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7287,25 +7287,25 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2430062465768905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.1379925636361579</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1035537715658163</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.03553039054647584</v>
+        <v>-0.01555814265892296</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.1004248224496198</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -7314,106 +7314,106 @@
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1982578450510447</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.01245442944959972</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.04506303850849958</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1651521225824395</v>
+        <v>-0.009546788573206164</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.002454340294905252</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06630753768238469</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.02964924391349954</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.02028646508692154</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.0182307447560681</v>
+        <v>0.01918874406522028</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.01123911717718969</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.09113332616313471</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.006903154029141725</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.03989724340492731</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.023052704563634</v>
+        <v>-0.01681150772418931</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.03485312776978189</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01787531866587561</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1512650474430794</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.1214270630213156</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.02188348527382607</v>
+        <v>-0.001119795215973237</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.06953944299165316</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1509430727381632</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.06879364902693798</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.004829790285384939</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01880263602082126</v>
+        <v>-0.03646778644263521</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.06030724000733129</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.006794853852726311</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.06474366697097311</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.01678060363103259</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01887813197805402</v>
+        <v>0.04197359140605972</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.008312104286500923</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,358 +7476,358 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.06876748589468927</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.060488453200599</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.1000177732053799</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01730632883038484</v>
+        <v>-0.008511551806860132</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.01226632062692334</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1625799797635782</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.03875181760277759</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.04849870803084316</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.001767845440369114</v>
+        <v>-0.005541690231554492</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.03011665716240493</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.0253912563647367</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.02620838741303694</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.05372768322267094</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1182370828757584</v>
+        <v>0.01756152726957533</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.01517050654401123</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.05448692529791155</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.02540792953485304</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.05171370915365551</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.01952649714013888</v>
+        <v>-0.005543716105433154</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.0280374567710711</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.0358829996193208</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.01202693933698795</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02449156871921823</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.003685260286767916</v>
+        <v>0.00243900778609646</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.004398172868571877</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.005771588133749292</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.02710477535702198</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.01155203966885075</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.0396324264704594</v>
+        <v>0.01002641131483205</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.009003828289221954</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.06996110453911304</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.001541149974254064</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.02450297336835588</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02728290495298298</v>
+        <v>-0.01375630952216829</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.009617710227955123</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.04640644969274896</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01657366460068689</v>
       </c>
       <c r="EH13" t="n">
         <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.07671313600867818</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.05183837428021881</v>
+        <v>0.006847755167527577</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.01975202521851369</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.04408799312739146</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.01952679253474292</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.06464201655002048</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.02693335076664508</v>
+        <v>-0.0006303549022507892</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.04278030465385839</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.05814684317015731</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.02818642620242703</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0427358620984095</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.008287649067652784</v>
+        <v>0.0003964469772894106</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.03253667398185735</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.0536050744974698</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.00505966031444571</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.01699161664658988</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.04991256830847659</v>
+        <v>-0.02207738252416749</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.01714012440061239</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.03083188482003128</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01410608376747276</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.005653974286986207</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.007846788154562252</v>
+        <v>-0.02739021916414078</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001314136345316307</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.0139085568193241</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02778717149166223</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04191956220809379</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.02222435366379504</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01187818466640368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,187 +7835,187 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.342970196518474</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.1097515327279935</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1732190090123269</v>
+        <v>-0.07141131794219462</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.20913166088937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3318479408492518</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.2738566767456348</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>-0.1278609334685742</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2521781864189337</v>
+        <v>-0.1402247354580816</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1776299255973275</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.406785900669597</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0.0898069982008298</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.02219012329727756</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08017540546217126</v>
+        <v>0.03283356269470165</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.02786125154176316</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1810477348091944</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.06426784352370626</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.04699573585661168</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1187142437582046</v>
+        <v>0.02461271060332367</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.03767934900960019</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.05731393637977897</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>-0.02307886884534528</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>-0.03288830313013368</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1637494866471278</v>
+        <v>-0.08425828309962584</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.02599007208109267</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03132362759915137</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0.1595743929262506</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.02322273317365001</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0583431821482516</v>
+        <v>0.1652389883018708</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.1763630163347134</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1388637276466832</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.09872972827781143</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.04669224878704851</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1596616659282362</v>
+        <v>-0.08757230315296104</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0007995938877837233</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1040870905582455</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8027,22 +8027,22 @@
         <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0.03983958074702239</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.05920005311724343</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.01380682781960441</v>
+        <v>0.129933395322922</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.03794675330109101</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.04022183278217653</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8054,49 +8054,49 @@
         <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>0.05314719140800196</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>-0.01467073408744076</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.05963366215421689</v>
+        <v>0.09636595815116242</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.05410039298727132</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1209158164129382</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>-0.07198410961931657</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.02509372377254469</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.05157844733337544</v>
+        <v>0.002765312141491885</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.05230664666478409</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.06916825478779523</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
@@ -8105,109 +8105,109 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0.0157259551637416</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.007232599217462946</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.06633430504509159</v>
+        <v>-0.134030388334011</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.06761023620951986</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0.01872158794078031</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
         <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0.05447512606266257</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.02501838199046121</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.04130542351885907</v>
+        <v>0.02713359366719531</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.04841980861696608</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.09309367942636287</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0.03707849523066748</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.04550360450758483</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.02294543323906165</v>
+        <v>-0.00680358613817661</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.04363371247519435</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.009407952419431593</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
         <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>-0.003156122121830755</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.02956404662718841</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.04351703725698573</v>
+        <v>-0.1504434517564663</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.01907063227325786</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.05954440669347692</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
@@ -8216,103 +8216,103 @@
         <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0.06134807659331291</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.003502486305162758</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.01705616428017886</v>
+        <v>-0.06389529179402857</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.03035841786205427</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.002827243223743926</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>-0.1143604660715261</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.05244576720599337</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03598170000892885</v>
+        <v>0.06638098822878905</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.06094775053423326</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.04084813593844792</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>-0.007602853461317472</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.03277591048267625</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.09175573394208292</v>
+        <v>0.02644310966726408</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.05280721527229697</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.058572654410837</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>-0.06821644659536467</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.04100492745836462</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.05647618953410898</v>
+        <v>0.02452896192668477</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.05443958964674164</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.0972583606430828</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
@@ -8324,79 +8324,79 @@
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>-0.005158136240674969</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0.0011531778052613</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.0005832984300046836</v>
+        <v>0.07860345749122406</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.01323510799659321</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.05217576764175964</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP14" t="n">
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>-0.004244804252954616</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>-0.007227238551969782</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0635672076377554</v>
+        <v>0.0967967429214432</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.01119052725313215</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.01305502593443279</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>0.05079393359683145</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.04844318096004517</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0.02973336079751409</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0008460949701041868</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,25 +8404,25 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.2522417388984197</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2067285987046611</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01645646882389756</v>
+        <v>-0.3555819454258746</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.9376872490640334</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1069502859000415</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8431,25 +8431,25 @@
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.2279330814242219</v>
       </c>
       <c r="L15" t="n">
         <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1821413638155416</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.03629638090359824</v>
+        <v>-0.3489775222388402</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.7527365532307281</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1159971466264413</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -8458,268 +8458,268 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.03505482237846016</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002209058091511386</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.04481881096565907</v>
+        <v>0.0178964885517884</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.1032566813602111</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.02422805005828186</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.07120656509002858</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.05084038643070929</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.02774277760895666</v>
+        <v>-0.1191441618537049</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0.0709193104892494</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.003739732892878528</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.01210109388651744</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.04836897350106035</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.04060773144270543</v>
+        <v>-0.08212798343526145</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0.1339004182639238</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.01830678067973099</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.06864689510343366</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.04634854890689307</v>
+        <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.001325338576073873</v>
+        <v>-0.04417087284402579</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0.4277892449536332</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.09802032303979995</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0.2053232061645263</v>
       </c>
       <c r="BE15" t="n">
         <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.09921406355515749</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.02011046243638866</v>
+        <v>-0.04354118282295492</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.2797344161551931</v>
       </c>
       <c r="BI15" t="n">
         <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.002107600142313763</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.05731961359152688</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.01754274594095316</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.0003049736520081131</v>
+        <v>-0.03449166945187442</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.06793768519851884</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.05931527773947672</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.005841159922310395</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.05237299812018566</v>
+        <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.003515187217890019</v>
+        <v>-0.04587473894242786</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.3034794440231323</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0.05361836320734711</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>0.06631759443131352</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.04220868183131022</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0138603280889629</v>
+        <v>0.08057278404511396</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0.1225298537445581</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.02803603773935741</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>0.05381396217216972</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.01438835972737543</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.07871764367202191</v>
+        <v>-0.2256315891771361</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>0.08054893000587018</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.03374306168768097</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.06840986987285604</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.03464255494719421</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01992332575229937</v>
+        <v>0.04745818842894682</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>-0.1177911192601196</v>
       </c>
       <c r="DB15" t="n">
         <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.02781703060865238</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>-0</v>
@@ -8728,52 +8728,52 @@
         <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.03908834128512888</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.01235899368588023</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.02384892582919905</v>
+        <v>-0.02965071864288949</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>-0.01350700871079513</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0.006398273698230136</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.02819024879412505</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.04333607212220106</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.03274419722449613</v>
+        <v>0.006427089550697727</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>0.01537158495180454</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0.01053078215796279</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
@@ -8782,25 +8782,25 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.05509009402994478</v>
       </c>
       <c r="DY15" t="n">
         <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.005863693992652908</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.0363840746846424</v>
+        <v>0.04832181087275859</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>-0.08093476203315494</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0.01290675190513192</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
@@ -8809,163 +8809,163 @@
         <v>-0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.006044274492454821</v>
       </c>
       <c r="EH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.08609240185122799</v>
+        <v>-0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.02644843877024963</v>
+        <v>0.0322212431533716</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0.1070273534060086</v>
       </c>
       <c r="EL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.03929655287871477</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0.1663778337495811</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.06075551865571351</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04246639653435677</v>
+        <v>0.04905244398374226</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.06585900017908174</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0.01778180989411766</v>
+        <v>-0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>0.07960054782456651</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.03708199109447396</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.01643637022391841</v>
+        <v>0.04654217997812082</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0.122348926020055</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.03717362652509117</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.05406957219163602</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.02764863649311706</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.01499680032601983</v>
+        <v>0.02807232655490399</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>-0.1488221249007662</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.02941890457283344</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.009889436840908469</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.04074020917501772</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.007466228679453291</v>
+        <v>-0.02558915791179081</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>-0.1846496305779978</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.003558346185413922</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0.06109323969379531</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.004118375808741958</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0.007123439085700193</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.002781076311349367</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
